--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Documents\GitHub\OurHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>时间</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>也哥评价</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>地理位置比较偏僻，且升值速度较慢，17年到20年从54000涨到7万。附近配套不够繁华。附近环境还不错</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -118,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K3"/>
+  <dimension ref="A2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -412,9 +421,13 @@
     <col min="4" max="4" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="36.90625" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +459,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="72.5">
+    <row r="3" spans="1:11" ht="87">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -473,6 +489,9 @@
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Documents\GitHub\OurHome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>时间</t>
   </si>
@@ -78,6 +78,75 @@
   </si>
   <si>
     <t>地理位置比较偏僻，且升值速度较慢，17年到20年从54000涨到7万。附近配套不够繁华。附近环境还不错</t>
+  </si>
+  <si>
+    <t>2020.4.12</t>
+  </si>
+  <si>
+    <t>槟城西岸</t>
+  </si>
+  <si>
+    <t>宝安区悦和路7号</t>
+  </si>
+  <si>
+    <t>2+1房（一个房在楼上）</t>
+  </si>
+  <si>
+    <t>9.15（实际赠送40平，实际5.98万/平）</t>
+  </si>
+  <si>
+    <t>有小学和中学，四个盘公用</t>
+  </si>
+  <si>
+    <t>中信湾上六座</t>
+  </si>
+  <si>
+    <t>780-810</t>
+  </si>
+  <si>
+    <t>富通城五期</t>
+  </si>
+  <si>
+    <t>有一个房在楼上，不方便，小区单元之间比较近，共33层，700米到碧海湾站</t>
+  </si>
+  <si>
+    <t>宝安区悦和路8号</t>
+  </si>
+  <si>
+    <t>户型很好，南北通透，赠送入户和阳光一半，厅出阳台或者厨房出阳台，朝南，共32层，870米到碧海湾站，满意</t>
+  </si>
+  <si>
+    <t>宝安区悦和路10号</t>
+  </si>
+  <si>
+    <t>很大的社区，有很多期，总共32层，三房有一间是自己割出来的入门的小书房，是双拼，可以单证卖，但是跟旁边隔音差，主卧可看海，朝北，1.1公里到碧海湾站</t>
+  </si>
+  <si>
+    <t>玉湖湾</t>
+  </si>
+  <si>
+    <t>碧海中心区</t>
+  </si>
+  <si>
+    <t>朝西南，更靠海边，可看海，小区有一栋挨着沿江高速，往里的不挨着，不吵，但离飞机很近，1.1公里到碧海湾站，看的18楼</t>
+  </si>
+  <si>
+    <t>年代</t>
+  </si>
+  <si>
+    <t>2006-2009</t>
+  </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>9.1（也有赠送）</t>
+  </si>
+  <si>
+    <t>户型</t>
   </si>
 </sst>
 </file>
@@ -114,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -127,6 +196,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,6 +221,271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>958850</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>355600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>120650</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>6350</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>520700</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>209550</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>927100</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>730250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>107950</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>901700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>628650</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,24 +750,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="36.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="6"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="36.90625" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -434,32 +782,38 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="87">
+    <row r="3" spans="1:13" ht="87">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -469,32 +823,277 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>2015</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>85</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>600</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>7.05</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="29">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2008</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6">
+        <v>75.17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6">
+        <v>688</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="43.5">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>89</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72.5">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6">
+        <v>84</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>665</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="58">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>700</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:J7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1025" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>958850</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>355600</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1025" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1026" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>120650</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>6350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>520700</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1026" r:id="rId6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId8">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>63500</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>209550</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>927100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>730250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1027" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>107950</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>901700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>628650</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1028" r:id="rId10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Github\text\OurHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB71E8-A1DE-4D0F-9760-030482C47F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6460"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +153,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,14 +239,14 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>958850</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>355600</xdr:rowOff>
+          <xdr:colOff>960120</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -246,6 +254,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -266,23 +277,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -296,14 +294,14 @@
         <xdr:from>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>120650</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>6350</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>520700</xdr:rowOff>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>518160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -311,6 +309,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -331,23 +332,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -360,15 +348,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>63500</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
+          <xdr:colOff>60960</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>213360</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>927100</xdr:colOff>
+          <xdr:colOff>929640</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>730250</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -376,6 +364,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -396,23 +387,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -425,15 +403,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>107950</xdr:rowOff>
+          <xdr:colOff>22860</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>106680</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>901700</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>628650</xdr:rowOff>
+          <xdr:colOff>899160</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>632460</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -441,6 +419,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -461,23 +442,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -750,245 +718,246 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="6"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="6"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="9" max="9" width="21.21875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="36.90625" customWidth="1"/>
-    <col min="12" max="12" width="19.81640625" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" customWidth="1"/>
+    <col min="11" max="11" width="36.88671875" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="87">
-      <c r="A3" s="3">
+    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D2" s="3">
         <v>2015</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F2" s="3">
         <v>85</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H2" s="3">
         <v>600</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I2" s="3">
         <v>7.05</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="29">
-      <c r="A4" s="6">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2008</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6">
+        <v>75.17</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6">
+        <v>688</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6">
-        <v>75.17</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="6">
-        <v>688</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="43.5">
-      <c r="A5" s="3">
-        <v>3</v>
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
+      <c r="H5" s="6">
+        <v>665</v>
+      </c>
+      <c r="I5" s="6">
+        <v>7.9</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="72.5">
-      <c r="A6" s="6">
-        <v>4</v>
+    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6">
-        <v>665</v>
+      <c r="H6">
+        <v>700</v>
       </c>
       <c r="I6" s="6">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="58">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="6">
-        <v>82</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>700</v>
-      </c>
-      <c r="I7" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="5" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J4:J7"/>
+    <mergeCell ref="J3:J6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1002,14 +971,14 @@
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>958850</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>355600</xdr:rowOff>
+                <xdr:colOff>960120</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>358140</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1027,14 +996,14 @@
               <from>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>120650</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>6350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>520700</xdr:rowOff>
+                <xdr:colOff>7620</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>518160</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1051,15 +1020,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>63500</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
+                <xdr:colOff>60960</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>213360</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>927100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>730250</xdr:rowOff>
+                <xdr:colOff>929640</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>731520</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1076,15 +1045,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>107950</xdr:rowOff>
+                <xdr:colOff>22860</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>106680</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>901700</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>628650</xdr:rowOff>
+                <xdr:colOff>899160</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>632460</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Github\text\OurHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB71E8-A1DE-4D0F-9760-030482C47F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B2121-EF4B-4B7B-AF6E-B863CB3C3F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>时间</t>
   </si>
@@ -96,58 +96,75 @@
     <t>9.15（实际赠送40平，实际5.98万/平）</t>
   </si>
   <si>
+    <t>中信湾上六座</t>
+  </si>
+  <si>
+    <t>780-810</t>
+  </si>
+  <si>
+    <t>富通城五期</t>
+  </si>
+  <si>
+    <t>有一个房在楼上，不方便，小区单元之间比较近，共33层，700米到碧海湾站</t>
+  </si>
+  <si>
+    <t>宝安区悦和路8号</t>
+  </si>
+  <si>
+    <t>户型很好，南北通透，赠送入户和阳光一半，厅出阳台或者厨房出阳台，朝南，共32层，870米到碧海湾站，满意</t>
+  </si>
+  <si>
+    <t>宝安区悦和路10号</t>
+  </si>
+  <si>
+    <t>很大的社区，有很多期，总共32层，三房有一间是自己割出来的入门的小书房，是双拼，可以单证卖，但是跟旁边隔音差，主卧可看海，朝北，1.1公里到碧海湾站</t>
+  </si>
+  <si>
+    <t>玉湖湾</t>
+  </si>
+  <si>
+    <t>碧海中心区</t>
+  </si>
+  <si>
+    <t>朝西南，更靠海边，可看海，小区有一栋挨着沿江高速，往里的不挨着，不吵，但离飞机很近，1.1公里到碧海湾站，看的18楼</t>
+  </si>
+  <si>
+    <t>年代</t>
+  </si>
+  <si>
+    <t>2006-2009</t>
+  </si>
+  <si>
+    <t>2008-2009</t>
+  </si>
+  <si>
+    <t>2010-2011</t>
+  </si>
+  <si>
+    <t>9.1（也有赠送）</t>
+  </si>
+  <si>
+    <t>户型</t>
+  </si>
+  <si>
+    <t>南北通透，印象不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一小部分赠送是在楼上，并不是很方便，也不安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考：双拼的优势在哪儿呢？既占用了名额，又不如大户型单价便宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海景房，印象不错，抬望眼即是飞机，可能晚上会吵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有小学和中学，四个盘公用</t>
-  </si>
-  <si>
-    <t>中信湾上六座</t>
-  </si>
-  <si>
-    <t>780-810</t>
-  </si>
-  <si>
-    <t>富通城五期</t>
-  </si>
-  <si>
-    <t>有一个房在楼上，不方便，小区单元之间比较近，共33层，700米到碧海湾站</t>
-  </si>
-  <si>
-    <t>宝安区悦和路8号</t>
-  </si>
-  <si>
-    <t>户型很好，南北通透，赠送入户和阳光一半，厅出阳台或者厨房出阳台，朝南，共32层，870米到碧海湾站，满意</t>
-  </si>
-  <si>
-    <t>宝安区悦和路10号</t>
-  </si>
-  <si>
-    <t>很大的社区，有很多期，总共32层，三房有一间是自己割出来的入门的小书房，是双拼，可以单证卖，但是跟旁边隔音差，主卧可看海，朝北，1.1公里到碧海湾站</t>
-  </si>
-  <si>
-    <t>玉湖湾</t>
-  </si>
-  <si>
-    <t>碧海中心区</t>
-  </si>
-  <si>
-    <t>朝西南，更靠海边，可看海，小区有一栋挨着沿江高速，往里的不挨着，不吵，但离飞机很近，1.1公里到碧海湾站，看的18楼</t>
-  </si>
-  <si>
-    <t>年代</t>
-  </si>
-  <si>
-    <t>2006-2009</t>
-  </si>
-  <si>
-    <t>2008-2009</t>
-  </si>
-  <si>
-    <t>2010-2011</t>
-  </si>
-  <si>
-    <t>9.1（也有赠送）</t>
-  </si>
-  <si>
-    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -179,12 +196,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,24 +226,22 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,16 +752,16 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="J3" sqref="J3:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5546875" customWidth="1"/>
     <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="6"/>
+    <col min="6" max="6" width="8.77734375" style="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="9" max="9" width="21.21875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
@@ -741,217 +771,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
-        <v>40</v>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>2015</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>85</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="4">
         <v>600</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>7.05</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>2008</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>75.17</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>688</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" s="4">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="6">
-        <v>89</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>84</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>665</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>7.9</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>82</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>700</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>8.5</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1027,8 +1074,8 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>929640</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>731520</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Github\text\OurHome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Documents\GitHub\OurHome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959B2121-EF4B-4B7B-AF6E-B863CB3C3F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="207">
   <si>
     <t>时间</t>
   </si>
@@ -39,9 +38,6 @@
     <t>房型</t>
   </si>
   <si>
-    <t>评价</t>
-  </si>
-  <si>
     <t>2020.3.29</t>
   </si>
   <si>
@@ -69,9 +65,6 @@
     <t>面积（平）</t>
   </si>
   <si>
-    <t>离地铁站较远，且未来没有新地铁规划。最近的为固戍站，走路20分钟。看的是刚满三年的二手精装修房，没有住过，装修还不错。去的道路都是大路，开车交通还可以。</t>
-  </si>
-  <si>
     <t>也哥评价</t>
   </si>
   <si>
@@ -105,30 +98,18 @@
     <t>富通城五期</t>
   </si>
   <si>
-    <t>有一个房在楼上，不方便，小区单元之间比较近，共33层，700米到碧海湾站</t>
-  </si>
-  <si>
     <t>宝安区悦和路8号</t>
   </si>
   <si>
-    <t>户型很好，南北通透，赠送入户和阳光一半，厅出阳台或者厨房出阳台，朝南，共32层，870米到碧海湾站，满意</t>
-  </si>
-  <si>
     <t>宝安区悦和路10号</t>
   </si>
   <si>
-    <t>很大的社区，有很多期，总共32层，三房有一间是自己割出来的入门的小书房，是双拼，可以单证卖，但是跟旁边隔音差，主卧可看海，朝北，1.1公里到碧海湾站</t>
-  </si>
-  <si>
     <t>玉湖湾</t>
   </si>
   <si>
     <t>碧海中心区</t>
   </si>
   <si>
-    <t>朝西南，更靠海边，可看海，小区有一栋挨着沿江高速，往里的不挨着，不吵，但离飞机很近，1.1公里到碧海湾站，看的18楼</t>
-  </si>
-  <si>
     <t>年代</t>
   </si>
   <si>
@@ -142,9 +123,6 @@
   </si>
   <si>
     <t>9.1（也有赠送）</t>
-  </si>
-  <si>
-    <t>户型</t>
   </si>
   <si>
     <t>南北通透，印象不错</t>
@@ -165,24 +143,534 @@
   <si>
     <t>有小学和中学，四个盘公用</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.4.18</t>
+  </si>
+  <si>
+    <t>郁金香家园</t>
+  </si>
+  <si>
+    <t>朝向</t>
+  </si>
+  <si>
+    <t>南</t>
+  </si>
+  <si>
+    <t>南，南北通透</t>
+  </si>
+  <si>
+    <t>楼层</t>
+  </si>
+  <si>
+    <t>中间/33</t>
+  </si>
+  <si>
+    <t>中间/32</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>西南</t>
+  </si>
+  <si>
+    <t>18/33</t>
+  </si>
+  <si>
+    <t>片区</t>
+  </si>
+  <si>
+    <t>固戍</t>
+  </si>
+  <si>
+    <t>碧海湾</t>
+  </si>
+  <si>
+    <t>桃源村</t>
+  </si>
+  <si>
+    <t>南山区龙珠六路32号</t>
+  </si>
+  <si>
+    <t>东北</t>
+  </si>
+  <si>
+    <t>卓雅小学、桃源小学、龙珠中学、桃源中学</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>9/11</t>
+  </si>
+  <si>
+    <t>水木华庭</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>三房一卫</t>
+  </si>
+  <si>
+    <t>三房两卫</t>
+  </si>
+  <si>
+    <t>南山区龙珠六路33号</t>
+  </si>
+  <si>
+    <t>湖彬苑</t>
+  </si>
+  <si>
+    <t>680-700</t>
+  </si>
+  <si>
+    <t>梯户比</t>
+  </si>
+  <si>
+    <t>两梯四户</t>
+  </si>
+  <si>
+    <t>一梯四户</t>
+  </si>
+  <si>
+    <t>两梯六户</t>
+  </si>
+  <si>
+    <t>10/18</t>
+  </si>
+  <si>
+    <t>南山区龙苑路68号</t>
+  </si>
+  <si>
+    <t>俊峰丽舍</t>
+  </si>
+  <si>
+    <t>南山区龙珠七路43号</t>
+  </si>
+  <si>
+    <t>西</t>
+  </si>
+  <si>
+    <t>三房一厅</t>
+  </si>
+  <si>
+    <t>朝西很热，卫生间窗户对着厨房和生活阳台</t>
+  </si>
+  <si>
+    <t>桃源村三期</t>
+  </si>
+  <si>
+    <t>幼儿园，哈工大实验小学</t>
+  </si>
+  <si>
+    <t>南山区龙珠八路8号</t>
+  </si>
+  <si>
+    <t>31/35</t>
+  </si>
+  <si>
+    <t>21/34</t>
+  </si>
+  <si>
+    <t>三梯六户</t>
+  </si>
+  <si>
+    <t>三梯八户</t>
+  </si>
+  <si>
+    <t>西北</t>
+  </si>
+  <si>
+    <t>主卧视野比较好，一对老夫妇居住</t>
+  </si>
+  <si>
+    <t>香榭峰景苑</t>
+  </si>
+  <si>
+    <t>两梯十户</t>
+  </si>
+  <si>
+    <t>77实际有赠送</t>
+  </si>
+  <si>
+    <t>没有小区，一楼是商铺，二楼要经过一段很暗的楼梯去一个小平台晒被子，奇数层有个平台。有内窗，跟别的家对着看，可能隔音不好。面向龙珠大道，不吵。户型挺方正。</t>
+  </si>
+  <si>
+    <t>欧陆经典</t>
+  </si>
+  <si>
+    <t>龙井</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>一梯两户</t>
+  </si>
+  <si>
+    <t>去桃源村上幼儿园，桃源小学</t>
+  </si>
+  <si>
+    <t>南山区龙珠七路12-2</t>
+  </si>
+  <si>
+    <t>南山区龙井路215号, 龙井路265号</t>
+  </si>
+  <si>
+    <t>2020.5.1</t>
+  </si>
+  <si>
+    <t>竹子林</t>
+  </si>
+  <si>
+    <t>香诗美林</t>
+  </si>
+  <si>
+    <t>正南</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>原两房一卫，可将厨房改一房，生活阳台改厨房</t>
+  </si>
+  <si>
+    <t>东南</t>
+  </si>
+  <si>
+    <t>餐厅比上面大一些，但进门不够方正，如果改了三房影响南北通透，不好改</t>
+  </si>
+  <si>
+    <t>教科院附小和附中</t>
+  </si>
+  <si>
+    <t>福田区竹子林四路14号</t>
+  </si>
+  <si>
+    <t>该小区大户型和小户型隔一条小马路，三房的在“大花园”，楼下是停车库，可以直达家里，两房的在“小花园”，得停车在大花园走路回家，下雨不方便。小区车位充足，户型方正，采光好，可以改三房</t>
+  </si>
+  <si>
+    <t>竹盛花园</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>人车没有分流，物业不太好，因为很大一个小区，一期二期很老，都在地上停车，不好管理，三期有地下停车位，但也比较紧张，卖不起价。四楼是平台，看园博园的山</t>
+  </si>
+  <si>
+    <t>福田区紫竹六道78号</t>
+  </si>
+  <si>
+    <t>合正名园</t>
+  </si>
+  <si>
+    <t>两房一卫</t>
+  </si>
+  <si>
+    <t>11/17</t>
+  </si>
+  <si>
+    <t>景鹏小学，黄埔中学，在规划人民小学比较好</t>
+  </si>
+  <si>
+    <t>景田</t>
+  </si>
+  <si>
+    <t>福田区新闻路16号</t>
+  </si>
+  <si>
+    <t>五洲星苑</t>
+  </si>
+  <si>
+    <t>福田区新闻路12号</t>
+  </si>
+  <si>
+    <t>680，可以讲价到650</t>
+  </si>
+  <si>
+    <t>三梯十户</t>
+  </si>
+  <si>
+    <t>25/33</t>
+  </si>
+  <si>
+    <t>就在合正名园对面，下面为商业餐饮，没有小区，有空中花园，总共三栋，邓小平孙女曾经住在B栋33楼，现在是物业，停车较困难，要停到别的小区，1比0.5。卫生间比较暗，厅出阳台，主卧也朝南，比较大。小房虽然也朝南，但窗户小，显得有点暗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">不满意 </t>
+  </si>
+  <si>
+    <t>满意</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>宝宝评分</t>
+  </si>
+  <si>
+    <t>宝宝评价</t>
+  </si>
+  <si>
+    <t>也哥评分</t>
+  </si>
+  <si>
+    <t>2020.5.3</t>
+  </si>
+  <si>
+    <t>鸿瑞花园</t>
+  </si>
+  <si>
+    <t>车位比</t>
+  </si>
+  <si>
+    <t>地铁站</t>
+  </si>
+  <si>
+    <t>较远，且未来无新地铁规划，最近为固戍，走路20分钟</t>
+  </si>
+  <si>
+    <t>看的是刚满三年的二手精装修房，没有住过，装修还不错。去的道路都是大路，开车交通还可以。</t>
+  </si>
+  <si>
+    <t>碧海湾站700米</t>
+  </si>
+  <si>
+    <t>有一个房在楼上，不方便，小区单元之间比较近</t>
+  </si>
+  <si>
+    <t>碧海湾站870米</t>
+  </si>
+  <si>
+    <t>户型很好，南北通透，赠送入户和阳光一半，厅出阳台或者厨房出阳台，满意</t>
+  </si>
+  <si>
+    <t>碧海湾站1.1公里</t>
+  </si>
+  <si>
+    <t>很大的社区，有很多期，三房有一间是自己割出来的入门的小书房，是双拼，可以单证卖，但是跟旁边隔音差，主卧可看海</t>
+  </si>
+  <si>
+    <t>更靠海边，可看海，小区有一栋挨着沿江高速，往里的不挨着，不吵，但离飞机很近</t>
+  </si>
+  <si>
+    <t>桃源村站500米</t>
+  </si>
+  <si>
+    <t>桃源村站800米</t>
+  </si>
+  <si>
+    <t>一楼是商业，小区里面比较安静，外面出去隔着北环大道就是华侨城了，但也哥觉得晚上有点寂静荒凉。南北通透，有一间房很大，另外两间有点小，只能放床，送的地方无法打通，无法既放床又放书桌当小孩房</t>
+  </si>
+  <si>
+    <t>竹子林地铁站800米</t>
+  </si>
+  <si>
+    <t>龙井地铁站1公里</t>
+  </si>
+  <si>
+    <t>竹子林地铁站900米</t>
+  </si>
+  <si>
+    <t>离四个地铁站都不算太近，都有1-1.5公里。</t>
+  </si>
+  <si>
+    <t>没有小区，几栋楼之间由空中花园连着楼道比较暗，主卧是南北通的，但是其他都朝北。周围生活比较安静，楼间距比较小，吃的比较多，租售比高，中介说未来可承接香蜜湖金融中心和福田金融中心的人流，有一定升值空间，目前处于洼地，旁边有旧改要拆。</t>
+  </si>
+  <si>
+    <t>楼层低，采光比较暗，楼层高稍微好一些</t>
+  </si>
+  <si>
+    <t>容积率低，楼之间比较宽，；但是朝南的都是大户型，在对面栋，楼层矮容易蚊子多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般 </t>
+  </si>
+  <si>
+    <t>没有小区，就一栋2个单元，楼道很暗，二楼是商业，三楼是空中花园，更靠山，没具体看房</t>
+  </si>
+  <si>
+    <t>桃源村站1公里</t>
+  </si>
+  <si>
+    <t>紧张</t>
+  </si>
+  <si>
+    <t>小区挺好看，楼间距挺大，挺好，厅和房间比较大</t>
+  </si>
+  <si>
+    <t>与二期一期隔开，是独立的小区，一期二期是开放式的。小区比较新，厨房和生活砚台在拐角凸出去，光线不好，满五唯一</t>
+  </si>
+  <si>
+    <t>宽裕</t>
+  </si>
+  <si>
+    <t>南山区南光路65号</t>
+  </si>
+  <si>
+    <t>离南山站和南山书城约500米</t>
+  </si>
+  <si>
+    <t>向南小学（一般），南二外学府中学分部（中上等）</t>
+  </si>
+  <si>
+    <t>18/25</t>
+  </si>
+  <si>
+    <t>小区不错，地面有花园，三楼还有花园，自带双语幼儿园。看的是三期。但是小区某间房出过事故。百度查询，继2001年4月8日发生一宗二人随电梯坠落的四级重大事故后，8月28日，鸿瑞花园G型裙房外墙工程因安全防护网防护不严，缺踢脚板，地面无防护棚，发生一宗物体打击事故，造成一名工人死亡。</t>
+  </si>
+  <si>
+    <t>阳台客厅朝西北，两个房间朝东北</t>
+  </si>
+  <si>
+    <t>采光好，各个房间均有窗</t>
+  </si>
+  <si>
+    <t>万象新园</t>
+  </si>
+  <si>
+    <t>南山区南光路67号</t>
+  </si>
+  <si>
+    <t>海滨实验小学（前五），中学不太好</t>
+  </si>
+  <si>
+    <t>29/32</t>
+  </si>
+  <si>
+    <t>南山站200米</t>
+  </si>
+  <si>
+    <t>厨房厕所比较暗，厕所窗对通风天井不够通畅</t>
+  </si>
+  <si>
+    <t>阳台朝东，主卧朝北，次卧朝北有阳台，另一间小房对着天井，通风一般</t>
+  </si>
+  <si>
+    <t>三梯12户</t>
+  </si>
+  <si>
+    <t>南山中心区</t>
+  </si>
+  <si>
+    <t>后海</t>
+  </si>
+  <si>
+    <t>青春家园</t>
+  </si>
+  <si>
+    <t>27/27</t>
+  </si>
+  <si>
+    <t>阳台和两个房间都朝西北</t>
+  </si>
+  <si>
+    <t>南山区南海大道2718号</t>
+  </si>
+  <si>
+    <t>三栋连着，一楼是商业，花园在二楼。小房窗有点小，小房采光不好，主卧和客厅带阳台</t>
+  </si>
+  <si>
+    <t>南二外学府中小学，都不错，小学学位可租3-5万</t>
+  </si>
+  <si>
+    <t>主卧少个阳台，变成飘窗，比顶楼采光稍微差一些，小房，厨房，厕所比较暗</t>
+  </si>
+  <si>
+    <t>南山书城600米</t>
+  </si>
+  <si>
+    <t>11/27</t>
+  </si>
+  <si>
+    <t>海岸明珠</t>
+  </si>
+  <si>
+    <t>南山区海德一道223号</t>
+  </si>
+  <si>
+    <t>13/18</t>
+  </si>
+  <si>
+    <t>阳台和房间全部正北</t>
+  </si>
+  <si>
+    <t>小区不错，地面有花园，二楼也有花园。阳台凸出，可以晒到阳台。次卧和卫生间没看</t>
+  </si>
+  <si>
+    <t>前海</t>
+  </si>
+  <si>
+    <t>南山书城800米</t>
+  </si>
+  <si>
+    <t>前海中小学，小学一般，中学不行，有北大附中私立</t>
+  </si>
+  <si>
+    <t>12/18</t>
+  </si>
+  <si>
+    <t>阳台主卧西南，次卧东南</t>
+  </si>
+  <si>
+    <t>15/18</t>
+  </si>
+  <si>
+    <t>朝南偏西</t>
+  </si>
+  <si>
+    <t>大新站500米</t>
+  </si>
+  <si>
+    <t>星海名城三期</t>
+  </si>
+  <si>
+    <t>小区绿化不错，每期独立。面向月亮湾大道，比较吵。但中介说以后月亮湾大道会改不走大车。厕所窗对着生活阳台，但打通成了厨房</t>
+  </si>
+  <si>
+    <t>厕所通风比上个好，主卧比较大。朝南偏西，比上个户型更好，通风也比上个好</t>
+  </si>
+  <si>
+    <t>前海路3101号</t>
+  </si>
+  <si>
+    <t>星海名城一期</t>
+  </si>
+  <si>
+    <t>阳台朝东北，主卧南北通透带个卫生间，另外两个房间朝东北</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>面向小区，不吵。法式小阳台，小高层.厨房通风比较好</t>
+  </si>
+  <si>
+    <t>户型图</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -196,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,30 +707,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,16 +868,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>960120</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>958850</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>358140</xdr:rowOff>
+          <xdr:rowOff>355600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -286,7 +887,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -322,16 +923,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
+          <xdr:col>18</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>120650</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>6350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>518160</xdr:rowOff>
+          <xdr:rowOff>520700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -341,7 +942,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -377,16 +978,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>63500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>213360</xdr:rowOff>
+          <xdr:rowOff>215900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>929640</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>927100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -396,7 +997,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -432,16 +1033,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>106680</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>899160</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>632460</xdr:rowOff>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>901700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>82550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -451,7 +1052,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -748,261 +1349,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="21.21875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="36.88671875" customWidth="1"/>
-    <col min="12" max="12" width="19.77734375" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="9.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" style="15" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="28" customWidth="1"/>
+    <col min="17" max="17" width="33.7265625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="7"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="5" customFormat="1" ht="29">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="83.5" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2">
+        <v>85</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>600</v>
+      </c>
+      <c r="J2" s="4">
+        <v>7.05</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="72.5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2008</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2">
+        <v>75.17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2">
+        <v>688</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="T3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="43.5">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2">
+        <v>89</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="58">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>84</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="2">
+        <v>665</v>
+      </c>
+      <c r="J5" s="21">
+        <v>7.9</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="R5" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="43.5">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2">
+        <v>82</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="2">
+        <v>700</v>
+      </c>
+      <c r="J6" s="21">
+        <v>8.5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="18"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="R6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.5" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2001</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2">
+        <v>92.39</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="8">
+        <v>675</v>
+      </c>
+      <c r="J7" s="21">
+        <f>I7/G7</f>
+        <v>7.3059854962658299</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="29">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2001</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2">
+        <v>95</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="8">
+        <v>729</v>
+      </c>
+      <c r="J8" s="21">
+        <f>I8/G8</f>
+        <v>7.6736842105263161</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="26"/>
+      <c r="T8" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="58">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="2">
+        <v>92.18</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="8">
+        <v>715</v>
+      </c>
+      <c r="J9" s="21">
+        <f>I9/G9</f>
+        <v>7.7565632458233882</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="58">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2007</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="21">
+        <v>7.6</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="58" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="2">
+        <v>99</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="8">
+        <v>768</v>
+      </c>
+      <c r="J11" s="21">
+        <f>I11/G11</f>
+        <v>7.7575757575757578</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="29">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="2">
+        <v>87</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="8">
+        <v>695</v>
+      </c>
+      <c r="J12" s="22">
+        <f>I12/G12</f>
+        <v>7.9885057471264371</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="58">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2008</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2">
+        <v>89</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="8">
+        <v>680</v>
+      </c>
+      <c r="J13" s="22">
+        <f>I13/G13</f>
+        <v>7.6404494382022472</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="29">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="B14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2008</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="2">
+        <v>89</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="8">
+        <v>695</v>
+      </c>
+      <c r="J14" s="22">
+        <f>I14/G14</f>
+        <v>7.808988764044944</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="72.5">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2007</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="8">
+        <v>585</v>
+      </c>
+      <c r="J15" s="22">
+        <v>7.6</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="87">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>39</v>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2">
+        <v>97</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="8">
+        <v>720</v>
+      </c>
+      <c r="J16" s="22">
+        <f>I16/G16</f>
+        <v>7.4226804123711343</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="17" spans="1:20" ht="116">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2">
+        <v>79.8</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="8">
+        <v>665</v>
+      </c>
+      <c r="J17" s="22">
+        <f>I17/G17</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q17" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="43.5">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="2">
+        <v>80</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="8">
+        <v>685</v>
+      </c>
+      <c r="J18" s="22">
+        <f>I18/G18</f>
+        <v>8.5625</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="18"/>
+      <c r="O18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="76" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2007</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="2">
+        <v>90</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="8">
+        <v>668</v>
+      </c>
+      <c r="J19" s="22">
+        <f>I19/G19</f>
+        <v>7.4222222222222225</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="145">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2001</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="2">
+        <v>101</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="8">
+        <v>700</v>
+      </c>
+      <c r="J20" s="22">
+        <f>I20/G20</f>
+        <v>6.9306930693069306</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N20" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="145">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2006</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="2">
+        <v>78.47</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="22">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="130.5" customHeight="1">
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2">
+        <v>82</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I22" s="2">
+        <v>738</v>
+      </c>
+      <c r="J22" s="21">
+        <f>I22/G22</f>
         <v>9</v>
       </c>
-      <c r="F2" s="4">
+      <c r="K22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="T22" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="72.5">
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="2">
         <v>85</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4">
-        <v>600</v>
-      </c>
-      <c r="I2" s="4">
-        <v>7.05</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4"/>
+      <c r="H23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="2">
+        <v>658</v>
+      </c>
+      <c r="J23" s="21">
+        <f>I23/G23</f>
+        <v>7.7411764705882353</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2008</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>75.17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="4">
-        <v>688</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="4"/>
+    <row r="24" spans="1:20" ht="72.5" customHeight="1">
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="2">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="2">
+        <v>680</v>
+      </c>
+      <c r="J24" s="21">
+        <f>I24/G24</f>
+        <v>9.8550724637681153</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="4">
-        <v>89</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4"/>
+    <row r="25" spans="1:20" ht="43.5">
+      <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G25" s="2">
+        <v>67</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="2">
+        <v>680</v>
+      </c>
+      <c r="J25" s="21">
+        <f>I25/G25</f>
+        <v>10.149253731343284</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="35"/>
+      <c r="O25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4">
-        <v>84</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4">
-        <v>665</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="4"/>
+    <row r="26" spans="1:20" ht="72.5">
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="2">
+        <v>61</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="2">
+        <v>710</v>
+      </c>
+      <c r="J26" s="21">
+        <f>I26/G26</f>
+        <v>11.639344262295081</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="T26" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4">
-        <v>82</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4">
-        <v>700</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="4"/>
+    <row r="27" spans="1:20" ht="72.5">
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I27" s="2">
+        <v>660</v>
+      </c>
+      <c r="J27" s="21">
+        <f>I27/G27</f>
+        <v>8.9189189189189193</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="72.5">
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" s="2">
+        <v>720</v>
+      </c>
+      <c r="J28" s="21">
+        <f>I28/G28</f>
+        <v>9.2307692307692299</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="72.5">
+      <c r="B29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2001</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="2">
+        <v>92</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" s="2">
+        <v>750</v>
+      </c>
+      <c r="J29" s="21">
+        <f>I29/G29</f>
+        <v>8.1521739130434785</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q29" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="T29" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J3:J6"/>
+  <mergeCells count="16">
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N17:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O11:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1016,16 +2988,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>960120</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>958850</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>358140</xdr:rowOff>
+                <xdr:rowOff>355600</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1041,16 +3013,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>120650</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>6350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>518160</xdr:rowOff>
+                <xdr:rowOff>520700</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1066,16 +3038,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>63500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>213360</xdr:rowOff>
+                <xdr:rowOff>215900</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>929640</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>927100</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>184150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1091,16 +3063,16 @@
           <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>106680</xdr:rowOff>
+                <xdr:rowOff>107950</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>899160</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>632460</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>901700</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>82550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$41</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
   <si>
     <t>时间</t>
   </si>
@@ -580,9 +583,6 @@
     <t>主卧少个阳台，变成飘窗，比顶楼采光稍微差一些，小房，厨房，厕所比较暗</t>
   </si>
   <si>
-    <t>南山书城600米</t>
-  </si>
-  <si>
     <t>11/27</t>
   </si>
   <si>
@@ -650,6 +650,279 @@
   </si>
   <si>
     <t>户型图</t>
+  </si>
+  <si>
+    <t>2020.5.4</t>
+  </si>
+  <si>
+    <t>科技园</t>
+  </si>
+  <si>
+    <t>汇景豪苑</t>
+  </si>
+  <si>
+    <t>科兴路10号</t>
+  </si>
+  <si>
+    <t>两房</t>
+  </si>
+  <si>
+    <t>三梯七户</t>
+  </si>
+  <si>
+    <t>20/32</t>
+  </si>
+  <si>
+    <t>阳台和两个卧房都朝北</t>
+  </si>
+  <si>
+    <t>南外大冲中小学，南山第三</t>
+  </si>
+  <si>
+    <t>深大地铁口</t>
+  </si>
+  <si>
+    <t>性价比高</t>
+  </si>
+  <si>
+    <t>不满意</t>
+  </si>
+  <si>
+    <t>客厅采光有点暗，小区带泳池，但是显得有点破。厨房和厕所邻接。学位三年后解锁。房租可租7000</t>
+  </si>
+  <si>
+    <t>缘来居</t>
+  </si>
+  <si>
+    <t>高新中二道35-2号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奇怪的户型 </t>
+  </si>
+  <si>
+    <t>厨房和客厅没窗，客厅开了一个大门对着露台，卫生间也很暗，房间的门也比较奇怪</t>
+  </si>
+  <si>
+    <t>两梯多户</t>
+  </si>
+  <si>
+    <t>2/15</t>
+  </si>
+  <si>
+    <t>豪方现代豪园</t>
+  </si>
+  <si>
+    <t>高新中二道12号</t>
+  </si>
+  <si>
+    <t>17/23</t>
+  </si>
+  <si>
+    <t>阳台主卧朝正北，次卧朝西，但因为楼层高采光不错</t>
+  </si>
+  <si>
+    <t>小区绿化不错 。厨卫分离</t>
+  </si>
+  <si>
+    <t>汇园雅居</t>
+  </si>
+  <si>
+    <t>南海大道4040号</t>
+  </si>
+  <si>
+    <t>13/15</t>
+  </si>
+  <si>
+    <t>目前离地铁远，2022年新开15号线玉泉路站近</t>
+  </si>
+  <si>
+    <t>离科兴地铁站15分钟，2022年玉泉路站开了后5分钟</t>
+  </si>
+  <si>
+    <t>卫生间明亮，通风好，主卧和次卧一南一北，阳台朝南，另一间也挺大。对面是阳光海景豪苑，不吵，但是景观一般。旁边在建一个新大厦。跟豪方花园在一个小区物业里，小区有点破。带幼儿园</t>
+  </si>
+  <si>
+    <t>白石洲</t>
+  </si>
+  <si>
+    <t>中海深圳湾畔</t>
+  </si>
+  <si>
+    <t>沙河东路186号</t>
+  </si>
+  <si>
+    <t>一般，房子满意，价格太贵</t>
+  </si>
+  <si>
+    <t>三梯六户，分单双</t>
+  </si>
+  <si>
+    <t>8/32</t>
+  </si>
+  <si>
+    <t>白石洲站门口</t>
+  </si>
+  <si>
+    <t>西北。主卧东北，次卧东</t>
+  </si>
+  <si>
+    <t>目前是沙河西小学，比较差，未来可能被接管为南外附小，要增加三所九年制学校。南山第二实验中学</t>
+  </si>
+  <si>
+    <t>客厅出阳台。整体采光不错，厨卫采光也好。未来靠旧改升值。小区比较小，但是是中海的物业</t>
+  </si>
+  <si>
+    <t>美庐锦园</t>
+  </si>
+  <si>
+    <t>海滨实验小学（前五），中学为华侨城中学，不太好。旁边有南山中英文私立</t>
+  </si>
+  <si>
+    <t>19/19</t>
+  </si>
+  <si>
+    <t>白石洲/红树湾</t>
+  </si>
+  <si>
+    <t>一开始电梯井漏过水 ，不能买顶楼。容积率比中海低，板楼，所有户型都朝南。厅出阳台。靠深圳湾超级总部基地的概念，2022年启用</t>
+  </si>
+  <si>
+    <t>石洲中路25号</t>
+  </si>
+  <si>
+    <t>侨城豪苑二期</t>
+  </si>
+  <si>
+    <t>白石洲500米</t>
+  </si>
+  <si>
+    <t>南。主卧东南双开口，采光好</t>
+  </si>
+  <si>
+    <t>7/24</t>
+  </si>
+  <si>
+    <t>新中路9号</t>
+  </si>
+  <si>
+    <t>独栋，没小区，但是还是安静的，周围是破房子和待拆迁的旧改。进大堂还有一节水泥毛坯区域，物业较差</t>
+  </si>
+  <si>
+    <t>南油</t>
+  </si>
+  <si>
+    <t>雅仕荔景苑</t>
+  </si>
+  <si>
+    <t>10/31</t>
+  </si>
+  <si>
+    <t>南油地铁口</t>
+  </si>
+  <si>
+    <t>南油小学，北师大附中</t>
+  </si>
+  <si>
+    <t>南海大道2052号</t>
+  </si>
+  <si>
+    <t>小区共三栋，主要靠空中花园.三间房采光都很好，就是厨房对着客厅 连着的阳台，可能油烟不好散开。旁边就是来福士和南油小学。视线所及是南油旧房子，很难拆。</t>
+  </si>
+  <si>
+    <t>荔雅居</t>
+  </si>
+  <si>
+    <t>目前离南油900米，新开十二号线创业路地铁站距离400米</t>
+  </si>
+  <si>
+    <t>一梯三户</t>
+  </si>
+  <si>
+    <t>登良路65号</t>
+  </si>
+  <si>
+    <t>小区还行，总共两栋楼。客厅厨房连着，双面有阳台，三间房都很大，采光好，主卧厕所改了储物间，客厅阳台看小区花园。周围都是旧楼，小区闹中取静</t>
+  </si>
+  <si>
+    <t>2020.5.16</t>
+  </si>
+  <si>
+    <t>鼎太风华</t>
+  </si>
+  <si>
+    <t>2005-2009</t>
+  </si>
+  <si>
+    <t>鼎太小学，南海实验中学</t>
+  </si>
+  <si>
+    <t>离怡海一公里</t>
+  </si>
+  <si>
+    <t>东滨路4240号</t>
+  </si>
+  <si>
+    <t>诺德假日</t>
+  </si>
+  <si>
+    <t>小区很好，总共七期，看的六期，有网球场，操场。厨房和生活阳台对着内窗的天井，卫生间也朝天井，通风可能不行。两个卧室出阳台，整体采光差一些。</t>
+  </si>
+  <si>
+    <t>荔林小学，南山实验南海中学</t>
+  </si>
+  <si>
+    <t>24/29</t>
+  </si>
+  <si>
+    <t>小区很好，厅出阳台，厨房和厕所朝天井。看花园，最近涨幅较高，主要靠地段和学位炒起来的</t>
+  </si>
+  <si>
+    <t>前海路0369号</t>
+  </si>
+  <si>
+    <t>南山书城地铁口</t>
+  </si>
+  <si>
+    <t>看的C栋，厨房和卫生间采光有点暗，对生活阳台，再对天井。满五唯一</t>
+  </si>
+  <si>
+    <t>新德家园</t>
+  </si>
+  <si>
+    <t>大新</t>
+  </si>
+  <si>
+    <t>5/25</t>
+  </si>
+  <si>
+    <t>6/28</t>
+  </si>
+  <si>
+    <t>离大新700米</t>
+  </si>
+  <si>
+    <t>大新小学，前海中学</t>
+  </si>
+  <si>
+    <t>前海路3001号</t>
+  </si>
+  <si>
+    <t>卫生间朝天井，但通风空间很大。没有小区，下面是商业，靠空中花园还不错，厚德开发的。阳台比较大</t>
+  </si>
+  <si>
+    <t>港湾丽都</t>
+  </si>
+  <si>
+    <t>大新地铁口</t>
+  </si>
+  <si>
+    <t>12/19</t>
+  </si>
+  <si>
+    <t>小区不错，露台都很大。鲤鱼门要开一个新的万象城，附近人人乐.卫生间也很大，厨房卫生间对着生活阳台，但是通风好。阳台侧出到两个房间前面，但客厅也有很大窗。</t>
+  </si>
+  <si>
+    <t>前海路3005号</t>
   </si>
 </sst>
 </file>
@@ -737,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -782,17 +1055,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,9 +1079,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -830,11 +1091,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,8 +1106,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1350,19 +1635,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="4.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="7" customWidth="1"/>
     <col min="3" max="3" width="5.26953125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="17" customWidth="1"/>
     <col min="5" max="5" width="7.54296875" style="4" customWidth="1"/>
     <col min="6" max="6" width="14.08984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.90625" style="2" customWidth="1"/>
@@ -1374,9 +1659,9 @@
     <col min="13" max="13" width="9.6328125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.36328125" style="15" customWidth="1"/>
     <col min="15" max="15" width="7.81640625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="28" customWidth="1"/>
-    <col min="17" max="17" width="33.7265625" style="25" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="24" customWidth="1"/>
+    <col min="17" max="17" width="33.7265625" style="22" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" style="22" customWidth="1"/>
     <col min="19" max="19" width="15.453125" style="1" customWidth="1"/>
     <col min="20" max="20" width="8.7265625" style="7"/>
     <col min="21" max="16384" width="8.7265625" style="1"/>
@@ -1438,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T1" s="5" t="s">
         <v>126</v>
@@ -1451,7 +1736,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1489,13 +1774,13 @@
         <v>7</v>
       </c>
       <c r="O2" s="4"/>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="T2" s="5" t="s">
@@ -1506,7 +1791,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1538,17 +1823,17 @@
         <v>44</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="36" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="4"/>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="Q3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="21" t="s">
         <v>34</v>
       </c>
       <c r="T3" s="5" t="s">
@@ -1559,7 +1844,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1592,15 +1877,15 @@
       <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="36"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="21" t="s">
         <v>33</v>
       </c>
       <c r="T4" s="5" t="s">
@@ -1611,7 +1896,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1635,7 +1920,7 @@
       <c r="I5" s="2">
         <v>665</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>7.9</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -1644,15 +1929,15 @@
       <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="36"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="21" t="s">
         <v>35</v>
       </c>
       <c r="T5" s="5" t="s">
@@ -1663,7 +1948,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -1687,7 +1972,7 @@
       <c r="I6" s="2">
         <v>700</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <v>8.5</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -1696,15 +1981,15 @@
       <c r="L6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="36"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="21" t="s">
         <v>36</v>
       </c>
       <c r="T6" s="5" t="s">
@@ -1727,7 +2012,7 @@
       <c r="E7" s="4">
         <v>2001</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="23" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="2">
@@ -1739,29 +2024,29 @@
       <c r="I7" s="8">
         <v>675</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <f>I7/G7</f>
         <v>7.3059854962658299</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="34" t="s">
+      <c r="O7" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="26" t="s">
+      <c r="Q7" s="35" t="s">
         <v>150</v>
       </c>
       <c r="T7" s="7" t="s">
@@ -1796,21 +2081,21 @@
       <c r="I8" s="8">
         <v>729</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <f>I8/G8</f>
         <v>7.6736842105263161</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="26"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
       <c r="T8" s="7" t="s">
         <v>123</v>
       </c>
@@ -1843,14 +2128,14 @@
       <c r="I9" s="8">
         <v>715</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <f>I9/G9</f>
         <v>7.7565632458233882</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="20" t="s">
         <v>59</v>
       </c>
       <c r="M9" s="11"/>
@@ -1860,10 +2145,10 @@
       <c r="O9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="23" t="s">
         <v>151</v>
       </c>
       <c r="T9" s="7" t="s">
@@ -1898,10 +2183,10 @@
       <c r="I10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <v>7.6</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="20" t="s">
         <v>69</v>
       </c>
       <c r="M10" s="13" t="s">
@@ -1913,10 +2198,10 @@
       <c r="O10" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="23" t="s">
         <v>153</v>
       </c>
       <c r="T10" s="7" t="s">
@@ -1951,27 +2236,27 @@
       <c r="I11" s="8">
         <v>768</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <f>I11/G11</f>
         <v>7.7575757575757578</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="23"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="34" t="s">
+      <c r="O11" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="23" t="s">
         <v>156</v>
       </c>
       <c r="T11" s="7" t="s">
@@ -2006,21 +2291,21 @@
       <c r="I12" s="8">
         <v>695</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <f>I12/G12</f>
         <v>7.9885057471264371</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L12" s="23"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="27" t="s">
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="23" t="s">
         <v>75</v>
       </c>
       <c r="T12" s="7" t="s">
@@ -2055,29 +2340,29 @@
       <c r="I13" s="8">
         <v>680</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <f>I13/G13</f>
         <v>7.6404494382022472</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="20" t="s">
         <v>80</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="Q13" s="27" t="s">
+      <c r="Q13" s="23" t="s">
         <v>157</v>
       </c>
       <c r="T13" s="7" t="s">
@@ -2112,23 +2397,23 @@
       <c r="I14" s="8">
         <v>695</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <f>I14/G14</f>
         <v>7.808988764044944</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="20" t="s">
         <v>79</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="27" t="s">
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="23" t="s">
         <v>84</v>
       </c>
       <c r="T14" s="7" t="s">
@@ -2163,13 +2448,13 @@
       <c r="I15" s="8">
         <v>585</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="19">
         <v>7.6</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="20" t="s">
         <v>69</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -2181,10 +2466,10 @@
       <c r="O15" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="P15" s="28" t="s">
+      <c r="P15" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="23" t="s">
         <v>88</v>
       </c>
       <c r="T15" s="7" t="s">
@@ -2219,14 +2504,14 @@
       <c r="I16" s="8">
         <v>720</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="19">
         <f>I16/G16</f>
         <v>7.4226804123711343</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="20" t="s">
         <v>91</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -2238,17 +2523,17 @@
       <c r="O16" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="Q16" s="36" t="s">
+      <c r="Q16" s="28" t="s">
         <v>144</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="116">
+    <row r="17" spans="1:20" ht="87">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2276,29 +2561,29 @@
       <c r="I17" s="8">
         <v>665</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="19">
         <f>I17/G17</f>
         <v>8.3333333333333339</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="20" t="s">
         <v>100</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="18" t="s">
+      <c r="N17" s="36" t="s">
         <v>104</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="23" t="s">
         <v>106</v>
       </c>
       <c r="T17" s="7" t="s">
@@ -2333,25 +2618,25 @@
       <c r="I18" s="8">
         <v>685</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="19">
         <f>I18/G18</f>
         <v>8.5625</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="20" t="s">
         <v>100</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="27" t="s">
+      <c r="P18" s="34"/>
+      <c r="Q18" s="23" t="s">
         <v>103</v>
       </c>
       <c r="T18" s="7" t="s">
@@ -2386,34 +2671,34 @@
       <c r="I19" s="8">
         <v>668</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="19">
         <f>I19/G19</f>
         <v>7.4222222222222225</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="20" t="s">
         <v>108</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="18"/>
+      <c r="N19" s="36"/>
       <c r="O19" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P19" s="24" t="s">
+      <c r="P19" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="Q19" s="36" t="s">
+      <c r="Q19" s="28" t="s">
         <v>109</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="145">
+    <row r="20" spans="1:20" ht="116">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2441,36 +2726,36 @@
       <c r="I20" s="8">
         <v>700</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <f>I20/G20</f>
         <v>6.9306930693069306</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="20" t="s">
         <v>113</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="38" t="s">
         <v>114</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="30" t="s">
+      <c r="P20" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="Q20" s="36" t="s">
+      <c r="Q20" s="28" t="s">
         <v>149</v>
       </c>
       <c r="T20" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="145">
+    <row r="21" spans="1:20" ht="101.5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2498,26 +2783,26 @@
       <c r="I21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="19">
         <v>8.2799999999999994</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="20" t="s">
         <v>121</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="39"/>
       <c r="O21" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="P21" s="27" t="s">
+      <c r="P21" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="Q21" s="27" t="s">
+      <c r="Q21" s="23" t="s">
         <v>122</v>
       </c>
       <c r="T21" s="7" t="s">
@@ -2525,7 +2810,10 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="130.5" customHeight="1">
-      <c r="B22" s="1" t="s">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2549,14 +2837,14 @@
       <c r="I22" s="2">
         <v>738</v>
       </c>
-      <c r="J22" s="21">
-        <f>I22/G22</f>
+      <c r="J22" s="18">
+        <f t="shared" ref="J22:J40" si="0">I22/G22</f>
         <v>9</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="20" t="s">
         <v>162</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -2568,13 +2856,13 @@
       <c r="O22" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="R22" s="28" t="s">
+      <c r="R22" s="24" t="s">
         <v>165</v>
       </c>
       <c r="T22" s="7" t="s">
@@ -2582,7 +2870,10 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="72.5">
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2606,14 +2897,14 @@
       <c r="I23" s="2">
         <v>658</v>
       </c>
-      <c r="J23" s="21">
-        <f>I23/G23</f>
+      <c r="J23" s="18">
+        <f t="shared" si="0"/>
         <v>7.7411764705882353</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="20" t="s">
         <v>169</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -2625,10 +2916,10 @@
       <c r="O23" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="P23" s="28" t="s">
+      <c r="P23" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="Q23" s="24" t="s">
         <v>171</v>
       </c>
       <c r="T23" s="7" t="s">
@@ -2636,7 +2927,10 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="72.5" customHeight="1">
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2660,37 +2954,40 @@
       <c r="I24" s="2">
         <v>680</v>
       </c>
-      <c r="J24" s="21">
-        <f>I24/G24</f>
+      <c r="J24" s="18">
+        <f t="shared" si="0"/>
         <v>9.8550724637681153</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="20" t="s">
         <v>177</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="40" t="s">
         <v>181</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q24" s="28" t="s">
+      <c r="P24" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q24" s="24" t="s">
         <v>180</v>
       </c>
       <c r="T24" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="43.5">
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:20" ht="72.5">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2714,27 +3011,29 @@
       <c r="I25" s="2">
         <v>680</v>
       </c>
-      <c r="J25" s="21">
-        <f>I25/G25</f>
+      <c r="J25" s="18">
+        <f t="shared" si="0"/>
         <v>10.149253731343284</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="L25" s="23" t="s">
-        <v>184</v>
+      <c r="L25" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="35"/>
+      <c r="N25" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="O25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="28" t="s">
+      <c r="P25" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q25" s="24" t="s">
         <v>182</v>
       </c>
       <c r="T25" s="7" t="s">
@@ -2742,20 +3041,23 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="72.5">
-      <c r="B26" s="1" t="s">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E26" s="4">
         <v>2003</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G26" s="2">
         <v>61</v>
@@ -2766,15 +3068,15 @@
       <c r="I26" s="2">
         <v>710</v>
       </c>
-      <c r="J26" s="21">
-        <f>I26/G26</f>
+      <c r="J26" s="18">
+        <f t="shared" si="0"/>
         <v>11.639344262295081</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L26" s="23" t="s">
+      <c r="K26" s="29" t="s">
         <v>187</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>186</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>66</v>
@@ -2785,31 +3087,34 @@
       <c r="O26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P26" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q26" s="28" t="s">
-        <v>189</v>
+      <c r="P26" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="24" t="s">
+        <v>188</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="72.5">
-      <c r="B27" s="1" t="s">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="4">
         <v>2004</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G27" s="2">
         <v>74</v>
@@ -2820,50 +3125,53 @@
       <c r="I27" s="2">
         <v>660</v>
       </c>
-      <c r="J27" s="21">
-        <f>I27/G27</f>
+      <c r="J27" s="18">
+        <f t="shared" si="0"/>
         <v>8.9189189189189193</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="L27" s="23" t="s">
         <v>193</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P27" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>199</v>
+      <c r="P27" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>198</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="72.5">
-      <c r="B28" s="1" t="s">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E28" s="4">
         <v>2004</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G28" s="2">
         <v>78</v>
@@ -2874,50 +3182,53 @@
       <c r="I28" s="2">
         <v>720</v>
       </c>
-      <c r="J28" s="21">
-        <f>I28/G28</f>
+      <c r="J28" s="18">
+        <f t="shared" si="0"/>
         <v>9.2307692307692299</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="23" t="s">
         <v>195</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P28" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q28" s="28" t="s">
-        <v>200</v>
+      <c r="P28" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>199</v>
       </c>
       <c r="T28" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="72.5">
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="4">
         <v>2001</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2">
         <v>92</v>
@@ -2928,53 +3239,869 @@
       <c r="I29" s="2">
         <v>750</v>
       </c>
-      <c r="J29" s="21">
-        <f>I29/G29</f>
+      <c r="J29" s="18">
+        <f t="shared" si="0"/>
         <v>8.1521739130434785</v>
       </c>
       <c r="K29" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>67</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P29" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="28" t="s">
-        <v>205</v>
+      <c r="P29" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="24" t="s">
+        <v>204</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="30" spans="1:20" ht="43.5">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="2">
+        <v>66</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I30" s="2">
+        <v>670</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="0"/>
+        <v>10.151515151515152</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="R30" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="58">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2007</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="2">
+        <v>57</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I31" s="2">
+        <v>615</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="0"/>
+        <v>10.789473684210526</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q31" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="58">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="2">
+        <v>75</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I32" s="2">
+        <v>780</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="L32" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="87">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2002</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="2">
+        <v>75</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="2">
+        <v>785</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="0"/>
+        <v>10.466666666666667</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="130.5">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I34" s="2">
+        <v>660</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="0"/>
+        <v>8.4615384615384617</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="130.5">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2003</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" s="5">
+        <v>76</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I35" s="5">
+        <v>610</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="0"/>
+        <v>8.026315789473685</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="P35" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q35" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="101.5">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="2">
+        <v>82</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I36" s="2">
+        <v>710</v>
+      </c>
+      <c r="J36" s="18">
+        <f t="shared" si="0"/>
+        <v>8.6585365853658534</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P36" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="72.5">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="2">
+        <v>96</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37" s="2">
+        <v>820</v>
+      </c>
+      <c r="J37" s="18">
+        <f t="shared" si="0"/>
+        <v>8.5416666666666661</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P37" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="72.5">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2005</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G38" s="2">
+        <v>106</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="2">
+        <v>785</v>
+      </c>
+      <c r="J38" s="18">
+        <f t="shared" si="0"/>
+        <v>7.4056603773584904</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="72.5">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="2">
+        <v>72.16</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="2">
+        <v>840</v>
+      </c>
+      <c r="J39" s="18">
+        <f t="shared" si="0"/>
+        <v>11.64079822616408</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P39" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="43.5">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2008</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="2">
+        <v>66.540000000000006</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I40" s="2">
+        <v>818</v>
+      </c>
+      <c r="J40" s="18">
+        <f t="shared" si="0"/>
+        <v>12.293357379020136</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P40" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="72.5">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="4">
+        <v>2003</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="G41" s="2">
+        <v>82.9</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="2">
+        <v>830</v>
+      </c>
+      <c r="J41" s="18">
+        <f>I41/G41</f>
+        <v>10.012062726176115</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N41" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="43.5">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2007</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G42" s="2">
+        <v>98</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="2">
+        <v>780</v>
+      </c>
+      <c r="J42" s="18">
+        <f>I42/G42</f>
+        <v>7.9591836734693882</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q42" s="24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="72.5">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2004</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G43" s="2">
+        <v>84</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="2">
+        <v>750</v>
+      </c>
+      <c r="J43" s="4">
+        <f>I43/G43</f>
+        <v>8.9285714285714288</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="P43" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q43" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="12:12">
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="12:12">
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="12:12">
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="12:12">
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="12:12">
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="12:12">
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="12:12">
+      <c r="L57" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="N24:N25"/>
+  <autoFilter ref="A1:U41"/>
+  <mergeCells count="15">
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="N3:N6"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="N7:N8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="P7:P8"/>
     <mergeCell ref="P11:P12"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N14"/>
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="O13:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/看房记录.xlsx
+++ b/看房记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Documents\GitHub\OurHome\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eunice\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="309">
   <si>
     <t>时间</t>
   </si>
@@ -923,6 +923,42 @@
   </si>
   <si>
     <t>前海路3005号</t>
+  </si>
+  <si>
+    <t>2020.8.23</t>
+  </si>
+  <si>
+    <t>富通城六期</t>
+  </si>
+  <si>
+    <t>14/30</t>
+  </si>
+  <si>
+    <t>共享学区房</t>
+  </si>
+  <si>
+    <t>一楼是底商，二楼空中花园，不靠海边，没那么吵</t>
+  </si>
+  <si>
+    <t>宝安区西乡大道306号</t>
+  </si>
+  <si>
+    <t>碧海湾站1.2公里</t>
+  </si>
+  <si>
+    <t>幸福珺湾</t>
+  </si>
+  <si>
+    <t>17/30</t>
+  </si>
+  <si>
+    <t>碧海湾站1.3公里</t>
+  </si>
+  <si>
+    <t>小区看起来较高档，有些户型能看海，不靠海边没那么吵</t>
+  </si>
+  <si>
+    <t>宝安区西乡大道308号</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1046,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1100,11 +1136,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1112,23 +1160,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,7 +1214,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1227,7 +1269,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1282,7 +1324,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1326,7 +1368,7 @@
         <xdr:to>
           <xdr:col>18</xdr:col>
           <xdr:colOff>901700</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>43</xdr:row>
           <xdr:rowOff>82550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1337,7 +1379,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1635,11 +1677,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E41" sqref="E41"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1732,7 +1775,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="83.5" customHeight="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="83.5" hidden="1" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1823,7 +1866,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="33" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="4"/>
@@ -1877,7 +1920,7 @@
       <c r="L4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="36"/>
+      <c r="N4" s="33"/>
       <c r="O4" s="4"/>
       <c r="P4" s="21" t="s">
         <v>137</v>
@@ -1929,7 +1972,7 @@
       <c r="L5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="36"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="4"/>
       <c r="P5" s="21" t="s">
         <v>139</v>
@@ -1981,7 +2024,7 @@
       <c r="L6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="33"/>
       <c r="O6" s="4"/>
       <c r="P6" s="21" t="s">
         <v>139</v>
@@ -1996,7 +2039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="41.5" customHeight="1">
+    <row r="7" spans="1:21" ht="41.5" hidden="1" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2034,26 +2077,26 @@
       <c r="L7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="41" t="s">
         <v>150</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="29">
+    <row r="8" spans="1:21" ht="29" hidden="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2091,16 +2134,16 @@
       <c r="L8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="41"/>
       <c r="T8" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="58">
+    <row r="9" spans="1:21" ht="58" hidden="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2155,7 +2198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="58">
+    <row r="10" spans="1:21" ht="58" hidden="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2208,7 +2251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="58" customHeight="1">
+    <row r="11" spans="1:21" ht="58" hidden="1" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2247,13 +2290,13 @@
       <c r="M11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="39" t="s">
         <v>142</v>
       </c>
       <c r="Q11" s="23" t="s">
@@ -2263,7 +2306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="29">
+    <row r="12" spans="1:21" ht="29" hidden="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2302,9 +2345,9 @@
       <c r="M12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
       <c r="Q12" s="23" t="s">
         <v>75</v>
       </c>
@@ -2312,7 +2355,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="58">
+    <row r="13" spans="1:21" ht="58" hidden="1">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2353,13 +2396,13 @@
       <c r="M13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="38" t="s">
+      <c r="N13" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="39" t="s">
         <v>143</v>
       </c>
       <c r="Q13" s="23" t="s">
@@ -2369,7 +2412,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="29">
+    <row r="14" spans="1:21" ht="29" hidden="1">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2410,9 +2453,9 @@
       <c r="M14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="32"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="23" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="72.5">
+    <row r="15" spans="1:21" ht="72.5" hidden="1">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2476,7 +2519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="87">
+    <row r="16" spans="1:21" ht="87" hidden="1">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2533,7 +2576,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="87">
+    <row r="17" spans="1:20" ht="87" hidden="1">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2574,13 +2617,13 @@
       <c r="M17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="33" t="s">
         <v>104</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="37" t="s">
         <v>145</v>
       </c>
       <c r="Q17" s="23" t="s">
@@ -2590,7 +2633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="43.5">
+    <row r="18" spans="1:20" ht="43.5" hidden="1">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2631,11 +2674,11 @@
       <c r="M18" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N18" s="36"/>
+      <c r="N18" s="33"/>
       <c r="O18" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="P18" s="34"/>
+      <c r="P18" s="38"/>
       <c r="Q18" s="23" t="s">
         <v>103</v>
       </c>
@@ -2643,7 +2686,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="76" customHeight="1">
+    <row r="19" spans="1:20" ht="76" hidden="1" customHeight="1">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2684,7 +2727,7 @@
       <c r="M19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N19" s="36"/>
+      <c r="N19" s="33"/>
       <c r="O19" s="4" t="s">
         <v>155</v>
       </c>
@@ -2698,7 +2741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="116">
+    <row r="20" spans="1:20" ht="116" hidden="1">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2739,7 +2782,7 @@
       <c r="M20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N20" s="38" t="s">
+      <c r="N20" s="34" t="s">
         <v>114</v>
       </c>
       <c r="O20" s="6" t="s">
@@ -2755,7 +2798,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="101.5">
+    <row r="21" spans="1:20" ht="101.5" hidden="1">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2795,7 +2838,7 @@
       <c r="M21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N21" s="39"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="12" t="s">
         <v>155</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="130.5" customHeight="1">
+    <row r="22" spans="1:20" ht="130.5" hidden="1" customHeight="1">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -2869,7 +2912,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="72.5">
+    <row r="23" spans="1:20" ht="72.5" hidden="1">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -2926,7 +2969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="72.5" customHeight="1">
+    <row r="24" spans="1:20" ht="72.5" hidden="1" customHeight="1">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -2967,7 +3010,7 @@
       <c r="M24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="40" t="s">
+      <c r="N24" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O24" s="4" t="s">
@@ -2983,7 +3026,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="72.5">
+    <row r="25" spans="1:20" ht="72.5" hidden="1">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -3024,7 +3067,7 @@
       <c r="M25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="40" t="s">
+      <c r="N25" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O25" s="4" t="s">
@@ -3040,7 +3083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="72.5">
+    <row r="26" spans="1:20" ht="72.5" hidden="1">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -3097,7 +3140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="72.5">
+    <row r="27" spans="1:20" ht="72.5" hidden="1">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -3154,7 +3197,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="72.5">
+    <row r="28" spans="1:20" ht="72.5" hidden="1">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="72.5">
+    <row r="29" spans="1:20" ht="72.5" hidden="1">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -3268,7 +3311,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="43.5">
+    <row r="30" spans="1:20" ht="43.5" hidden="1">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -3328,7 +3371,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="58">
+    <row r="31" spans="1:20" ht="58" hidden="1">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -3385,7 +3428,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="58">
+    <row r="32" spans="1:20" ht="58" hidden="1">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -3442,7 +3485,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="87">
+    <row r="33" spans="1:20" ht="87" hidden="1">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -3499,7 +3542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="130.5">
+    <row r="34" spans="1:20" ht="130.5" hidden="1">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -3556,7 +3599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="130.5">
+    <row r="35" spans="1:20" ht="130.5" hidden="1">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -3610,7 +3653,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="101.5">
+    <row r="36" spans="1:20" ht="101.5" hidden="1">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -3664,7 +3707,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="72.5">
+    <row r="37" spans="1:20" ht="72.5" hidden="1">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -3721,7 +3764,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="72.5">
+    <row r="38" spans="1:20" ht="72.5" hidden="1">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -3775,7 +3818,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="72.5">
+    <row r="39" spans="1:20" ht="72.5" hidden="1">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -3826,7 +3869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="43.5">
+    <row r="40" spans="1:20" ht="43.5" hidden="1">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -3880,7 +3923,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="72.5">
+    <row r="41" spans="1:20" ht="72.5" hidden="1">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -3921,7 +3964,7 @@
       <c r="M41" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N41" s="40" t="s">
+      <c r="N41" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O41" s="4" t="s">
@@ -3934,7 +3977,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="43.5">
+    <row r="42" spans="1:20" ht="43.5" hidden="1">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -3988,7 +4031,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="72.5">
+    <row r="43" spans="1:20" ht="72.5" hidden="1">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4042,19 +4085,117 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
-      <c r="L44" s="20"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="L45" s="20"/>
-    </row>
-    <row r="46" spans="1:20">
+    <row r="44" spans="1:20" ht="29">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="4">
+        <v>2013</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" s="2">
+        <v>80</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="2">
+        <v>730</v>
+      </c>
+      <c r="J44" s="4">
+        <f>I44/G44</f>
+        <v>9.125</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="P44" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="29">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2015</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="G45" s="2">
+        <v>89</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="2">
+        <v>830</v>
+      </c>
+      <c r="J45" s="4">
+        <f>I45/G45</f>
+        <v>9.3258426966292127</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="P45" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q45" s="24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1">
+      <c r="A46" s="5"/>
+      <c r="C46" s="31"/>
       <c r="L46" s="20"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1">
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="L48" s="20"/>
     </row>
     <row r="49" spans="12:12">
@@ -4085,23 +4226,29 @@
       <c r="L57" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41"/>
+  <autoFilter ref="A1:U48">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="碧海湾"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="15">
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="P13:P14"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="N13:N14"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="O13:O14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,7 +4345,7 @@
               <to>
                 <xdr:col>18</xdr:col>
                 <xdr:colOff>901700</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>82550</xdr:rowOff>
               </to>
             </anchor>
